--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N2">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q2">
-        <v>897.1800655452182</v>
+        <v>2271.890260294489</v>
       </c>
       <c r="R2">
-        <v>8074.620589906964</v>
+        <v>20447.0123426504</v>
       </c>
       <c r="S2">
-        <v>0.01443500555990302</v>
+        <v>0.02881841630611242</v>
       </c>
       <c r="T2">
-        <v>0.01443500555990303</v>
+        <v>0.02881841630611242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q3">
-        <v>1146.677302758299</v>
+        <v>2268.724400189867</v>
       </c>
       <c r="R3">
-        <v>10320.09572482469</v>
+        <v>20418.5196017088</v>
       </c>
       <c r="S3">
-        <v>0.01844924321927703</v>
+        <v>0.02877825808365932</v>
       </c>
       <c r="T3">
-        <v>0.01844924321927704</v>
+        <v>0.02877825808365932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N4">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q4">
-        <v>264.2251068691471</v>
+        <v>955.2128913807999</v>
       </c>
       <c r="R4">
-        <v>2378.025961822324</v>
+        <v>8596.9160224272</v>
       </c>
       <c r="S4">
-        <v>0.004251198876564737</v>
+        <v>0.01211666040647976</v>
       </c>
       <c r="T4">
-        <v>0.004251198876564739</v>
+        <v>0.01211666040647976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N5">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q5">
-        <v>1574.615755668762</v>
+        <v>1014.984448574489</v>
       </c>
       <c r="R5">
-        <v>14171.54180101886</v>
+        <v>9134.8600371704</v>
       </c>
       <c r="S5">
-        <v>0.02533447638961603</v>
+        <v>0.01287484914850512</v>
       </c>
       <c r="T5">
-        <v>0.02533447638961604</v>
+        <v>0.01287484914850512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N6">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q6">
-        <v>5180.232774725808</v>
+        <v>11885.40700177307</v>
       </c>
       <c r="R6">
-        <v>46622.09497253226</v>
+        <v>106968.6630159576</v>
       </c>
       <c r="S6">
-        <v>0.08334635573887494</v>
+        <v>0.1507637111399392</v>
       </c>
       <c r="T6">
-        <v>0.08334635573887497</v>
+        <v>0.1507637111399392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N7">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q7">
-        <v>314.4044978390574</v>
+        <v>690.1448856067999</v>
       </c>
       <c r="R7">
-        <v>2829.640480551517</v>
+        <v>6211.303970461199</v>
       </c>
       <c r="S7">
-        <v>0.005058550505808774</v>
+        <v>0.008754332448422502</v>
       </c>
       <c r="T7">
-        <v>0.005058550505808775</v>
+        <v>0.008754332448422502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N8">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q8">
-        <v>648.3229160816627</v>
+        <v>829.7716283901727</v>
       </c>
       <c r="R8">
-        <v>5834.906244734964</v>
+        <v>7467.944655511556</v>
       </c>
       <c r="S8">
-        <v>0.01043106646887449</v>
+        <v>0.01052546623570153</v>
       </c>
       <c r="T8">
-        <v>0.01043106646887449</v>
+        <v>0.01052546623570153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q9">
         <v>828.615348555632</v>
@@ -1013,10 +1013,10 @@
         <v>7457.538137000688</v>
       </c>
       <c r="S9">
-        <v>0.01333184677498687</v>
+        <v>0.01051079908640276</v>
       </c>
       <c r="T9">
-        <v>0.01333184677498688</v>
+        <v>0.01051079908640276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N10">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q10">
-        <v>190.9351292633693</v>
+        <v>348.8762508439079</v>
       </c>
       <c r="R10">
-        <v>1718.416163370324</v>
+        <v>3139.886257595172</v>
       </c>
       <c r="S10">
-        <v>0.003072013922670719</v>
+        <v>0.004425416672560674</v>
       </c>
       <c r="T10">
-        <v>0.00307201392267072</v>
+        <v>0.004425416672560674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N11">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q11">
-        <v>1137.853500794096</v>
+        <v>370.7068573704727</v>
       </c>
       <c r="R11">
-        <v>10240.68150714686</v>
+        <v>3336.361716334254</v>
       </c>
       <c r="S11">
-        <v>0.01830727436006554</v>
+        <v>0.004702332999943462</v>
       </c>
       <c r="T11">
-        <v>0.01830727436006555</v>
+        <v>0.004702332999943462</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N12">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q12">
-        <v>3743.355149616586</v>
+        <v>4340.955060330614</v>
       </c>
       <c r="R12">
-        <v>33690.19634654927</v>
+        <v>39068.59554297553</v>
       </c>
       <c r="S12">
-        <v>0.06022799042527726</v>
+        <v>0.05506403732657281</v>
       </c>
       <c r="T12">
-        <v>0.06022799042527727</v>
+        <v>0.05506403732657281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N13">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q13">
-        <v>227.1959093789463</v>
+        <v>252.064395698793</v>
       </c>
       <c r="R13">
-        <v>2044.763184410517</v>
+        <v>2268.579561289137</v>
       </c>
       <c r="S13">
-        <v>0.003655424748073632</v>
+        <v>0.003197380092758034</v>
       </c>
       <c r="T13">
-        <v>0.003655424748073633</v>
+        <v>0.003197380092758034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N14">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q14">
-        <v>1147.313838726524</v>
+        <v>1872.75155933834</v>
       </c>
       <c r="R14">
-        <v>10325.82454853872</v>
+        <v>16854.76403404506</v>
       </c>
       <c r="S14">
-        <v>0.01845948464192259</v>
+        <v>0.02375543177333651</v>
       </c>
       <c r="T14">
-        <v>0.01845948464192259</v>
+        <v>0.02375543177333651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>32.186352</v>
       </c>
       <c r="O15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q15">
-        <v>1466.370897584208</v>
+        <v>1870.141895680197</v>
       </c>
       <c r="R15">
-        <v>13197.33807825787</v>
+        <v>16831.27706112177</v>
       </c>
       <c r="S15">
-        <v>0.02359289163056109</v>
+        <v>0.02372232877754765</v>
       </c>
       <c r="T15">
-        <v>0.0235928916305611</v>
+        <v>0.02372232877754765</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N16">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q16">
-        <v>337.891058096284</v>
+        <v>787.3956163717158</v>
       </c>
       <c r="R16">
-        <v>3041.019522866556</v>
+        <v>7086.560547345443</v>
       </c>
       <c r="S16">
-        <v>0.005436432985498104</v>
+        <v>0.009987936066624431</v>
       </c>
       <c r="T16">
-        <v>0.005436432985498106</v>
+        <v>0.009987936066624429</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N17">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q17">
-        <v>2013.618577289424</v>
+        <v>836.6661638514397</v>
       </c>
       <c r="R17">
-        <v>18122.56719560482</v>
+        <v>7529.995474662957</v>
       </c>
       <c r="S17">
-        <v>0.03239772758552435</v>
+        <v>0.01061292186532965</v>
       </c>
       <c r="T17">
-        <v>0.03239772758552435</v>
+        <v>0.01061292186532965</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N18">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q18">
-        <v>6624.481504340862</v>
+        <v>9797.31058535201</v>
       </c>
       <c r="R18">
-        <v>59620.33353906775</v>
+        <v>88175.79526816809</v>
       </c>
       <c r="S18">
-        <v>0.1065833170162156</v>
+        <v>0.1242766783516903</v>
       </c>
       <c r="T18">
-        <v>0.1065833170162156</v>
+        <v>0.1242766783516903</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N19">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q19">
-        <v>402.060461641447</v>
+        <v>568.8962769363609</v>
       </c>
       <c r="R19">
-        <v>3618.544154773023</v>
+        <v>5120.066492427248</v>
       </c>
       <c r="S19">
-        <v>0.006468874222795528</v>
+        <v>0.007216321153480512</v>
       </c>
       <c r="T19">
-        <v>0.00646887422279553</v>
+        <v>0.00721632115348051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N20">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q20">
-        <v>382.3698286033232</v>
+        <v>306.5703545915744</v>
       </c>
       <c r="R20">
-        <v>3441.328457429908</v>
+        <v>2759.13319132417</v>
       </c>
       <c r="S20">
-        <v>0.006152065581700054</v>
+        <v>0.003888775906186284</v>
       </c>
       <c r="T20">
-        <v>0.006152065581700055</v>
+        <v>0.003888775906186284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>32.186352</v>
       </c>
       <c r="O21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q21">
-        <v>488.7032386888374</v>
+        <v>306.1431513626933</v>
       </c>
       <c r="R21">
-        <v>4398.329148199536</v>
+        <v>2755.28836226424</v>
       </c>
       <c r="S21">
-        <v>0.007862896466975095</v>
+        <v>0.003883356929437109</v>
       </c>
       <c r="T21">
-        <v>0.007862896466975097</v>
+        <v>0.003883356929437109</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N22">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q22">
-        <v>112.6102916306476</v>
+        <v>128.89705103234</v>
       </c>
       <c r="R22">
-        <v>1013.492624675828</v>
+        <v>1160.07345929106</v>
       </c>
       <c r="S22">
-        <v>0.001811821559814596</v>
+        <v>0.001635030063819496</v>
       </c>
       <c r="T22">
-        <v>0.001811821559814596</v>
+        <v>0.001635030063819496</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N23">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q23">
-        <v>671.0866410582454</v>
+        <v>136.9626639730744</v>
       </c>
       <c r="R23">
-        <v>6039.779769524208</v>
+        <v>1232.66397575767</v>
       </c>
       <c r="S23">
-        <v>0.01079731902978197</v>
+        <v>0.001737340547539746</v>
       </c>
       <c r="T23">
-        <v>0.01079731902978197</v>
+        <v>0.001737340547539746</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N24">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q24">
-        <v>2207.767196647988</v>
+        <v>1603.824578448803</v>
       </c>
       <c r="R24">
-        <v>19869.90476983189</v>
+        <v>14434.42120603923</v>
       </c>
       <c r="S24">
-        <v>0.035521444337061</v>
+        <v>0.02034415358500711</v>
       </c>
       <c r="T24">
-        <v>0.03552144433706101</v>
+        <v>0.02034415358500711</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N25">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q25">
-        <v>133.9962829844832</v>
+        <v>93.12860132276498</v>
       </c>
       <c r="R25">
-        <v>1205.966546860349</v>
+        <v>838.1574119048848</v>
       </c>
       <c r="S25">
-        <v>0.002155907341423056</v>
+        <v>0.00118131533456089</v>
       </c>
       <c r="T25">
-        <v>0.002155907341423056</v>
+        <v>0.00118131533456089</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H26">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N26">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O26">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P26">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q26">
-        <v>1667.10990684651</v>
+        <v>2474.598529608887</v>
       </c>
       <c r="R26">
-        <v>15003.98916161859</v>
+        <v>22271.38676647998</v>
       </c>
       <c r="S26">
-        <v>0.02682264318888382</v>
+        <v>0.03138972505103245</v>
       </c>
       <c r="T26">
-        <v>0.02682264318888383</v>
+        <v>0.03138972505103245</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H27">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>32.186352</v>
       </c>
       <c r="O27">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P27">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q27">
-        <v>2130.717305029163</v>
+        <v>2471.15019722384</v>
       </c>
       <c r="R27">
-        <v>19176.45574526246</v>
+        <v>22240.35177501456</v>
       </c>
       <c r="S27">
-        <v>0.03428176497210346</v>
+        <v>0.03134598373131692</v>
       </c>
       <c r="T27">
-        <v>0.03428176497210347</v>
+        <v>0.03134598373131692</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H28">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N28">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O28">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P28">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q28">
-        <v>490.974231612519</v>
+        <v>1040.44128265596</v>
       </c>
       <c r="R28">
-        <v>4418.768084512672</v>
+        <v>9363.971543903639</v>
       </c>
       <c r="S28">
-        <v>0.007899435169448301</v>
+        <v>0.01319776335576985</v>
       </c>
       <c r="T28">
-        <v>0.007899435169448302</v>
+        <v>0.01319776335576985</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H29">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N29">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O29">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P29">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q29">
-        <v>2925.898185395754</v>
+        <v>1105.545927069887</v>
       </c>
       <c r="R29">
-        <v>26333.08366856179</v>
+        <v>9949.913343628979</v>
       </c>
       <c r="S29">
-        <v>0.04707567432211211</v>
+        <v>0.01402360110813503</v>
       </c>
       <c r="T29">
-        <v>0.04707567432211212</v>
+        <v>0.01402360110813503</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H30">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N30">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O30">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P30">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q30">
-        <v>9625.73479970072</v>
+        <v>12945.87648198218</v>
       </c>
       <c r="R30">
-        <v>86631.61319730648</v>
+        <v>116512.8883378396</v>
       </c>
       <c r="S30">
-        <v>0.154871402840848</v>
+        <v>0.1642155276711794</v>
       </c>
       <c r="T30">
-        <v>0.154871402840848</v>
+        <v>0.1642155276711794</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H31">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N31">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O31">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P31">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q31">
-        <v>584.2158929223084</v>
+        <v>751.72271697591</v>
       </c>
       <c r="R31">
-        <v>5257.943036300775</v>
+        <v>6765.50445278319</v>
       </c>
       <c r="S31">
-        <v>0.009399628888758671</v>
+        <v>0.009535433371577379</v>
       </c>
       <c r="T31">
-        <v>0.009399628888758673</v>
+        <v>0.009535433371577379</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H32">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I32">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J32">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N32">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O32">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P32">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q32">
-        <v>1204.222580758259</v>
+        <v>1628.274842552067</v>
       </c>
       <c r="R32">
-        <v>10838.00322682434</v>
+        <v>14654.4735829686</v>
       </c>
       <c r="S32">
-        <v>0.01937510686669413</v>
+        <v>0.02065429967878495</v>
       </c>
       <c r="T32">
-        <v>0.01937510686669413</v>
+        <v>0.02065429967878495</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H33">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I33">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J33">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>32.186352</v>
       </c>
       <c r="O33">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P33">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q33">
-        <v>1539.105419139434</v>
+        <v>1626.005855157083</v>
       </c>
       <c r="R33">
-        <v>13851.94877225491</v>
+        <v>14634.05269641374</v>
       </c>
       <c r="S33">
-        <v>0.02476313968150117</v>
+        <v>0.02062551808467154</v>
       </c>
       <c r="T33">
-        <v>0.02476313968150117</v>
+        <v>0.02062551808467154</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H34">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I34">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J34">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N34">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O34">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P34">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q34">
-        <v>354.6510364134417</v>
+        <v>684.6057432876039</v>
       </c>
       <c r="R34">
-        <v>3191.859327720976</v>
+        <v>6161.451689588435</v>
       </c>
       <c r="S34">
-        <v>0.005706089422910146</v>
+        <v>0.008684069675557449</v>
       </c>
       <c r="T34">
-        <v>0.005706089422910147</v>
+        <v>0.008684069675557449</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H35">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I35">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J35">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N35">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O35">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P35">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q35">
-        <v>2113.49752609777</v>
+        <v>727.4443101759668</v>
       </c>
       <c r="R35">
-        <v>19021.47773487994</v>
+        <v>6546.998791583702</v>
       </c>
       <c r="S35">
-        <v>0.03400471066142404</v>
+        <v>0.009227467248988687</v>
       </c>
       <c r="T35">
-        <v>0.03400471066142405</v>
+        <v>0.009227467248988687</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H36">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I36">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J36">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N36">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O36">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P36">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q36">
-        <v>6953.067194061978</v>
+        <v>8518.329231259049</v>
       </c>
       <c r="R36">
-        <v>62577.6047465578</v>
+        <v>76664.96308133143</v>
       </c>
       <c r="S36">
-        <v>0.1118700330726479</v>
+        <v>0.1080530879106499</v>
       </c>
       <c r="T36">
-        <v>0.1118700330726479</v>
+        <v>0.1080530879106499</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H37">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I37">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J37">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N37">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O37">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P37">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q37">
-        <v>422.0033528717231</v>
+        <v>494.6302092971089</v>
       </c>
       <c r="R37">
-        <v>3798.030175845507</v>
+        <v>4451.67188367398</v>
       </c>
       <c r="S37">
-        <v>0.00678974152340216</v>
+        <v>0.006274272810719253</v>
       </c>
       <c r="T37">
-        <v>0.006789741523402162</v>
+        <v>0.006274272810719253</v>
       </c>
     </row>
   </sheetData>
